--- a/ตัวอย่างExcel import/Env.xlsx
+++ b/ตัวอย่างExcel import/Env.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AppServ\www\testFlask\testFlask\ตัวอย่างExcel import\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TrueAcademy\QaWeb\ตัวอย่างExcel import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A167DEE0-44E4-4313-87C5-52C85871F563}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48718C31-9C08-44A4-85B6-89AEFBE52738}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{52F18666-9F59-456C-A0EB-3429D433A409}"/>
   </bookViews>
@@ -31,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>System</t>
   </si>
@@ -60,7 +57,22 @@
     <t>Remark</t>
   </si>
   <si>
-    <t>Status</t>
+    <t>sss</t>
+  </si>
+  <si>
+    <t>ddd</t>
+  </si>
+  <si>
+    <t>ffg</t>
+  </si>
+  <si>
+    <t>ffff</t>
+  </si>
+  <si>
+    <t>dddss</t>
+  </si>
+  <si>
+    <t>fffg</t>
   </si>
 </sst>
 </file>
@@ -103,9 +115,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -420,19 +433,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{390D8A8F-7D9B-43C0-8D5F-D391D8215ECB}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="8.796875" style="2"/>
     <col min="7" max="7" width="21.69921875" customWidth="1"/>
     <col min="8" max="8" width="20.296875" customWidth="1"/>
+    <col min="10" max="10" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -457,11 +472,28 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="B2" t="s">
         <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
